--- a/database_dissertaçao.xlsx
+++ b/database_dissertaçao.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="349">
   <si>
     <t>PAIS</t>
   </si>
@@ -1344,6 +1344,15 @@
   </si>
   <si>
     <t>SUÍÇA</t>
+  </si>
+  <si>
+    <t>ARÁBIA SAUDITA</t>
+  </si>
+  <si>
+    <t>NIGÉRIA</t>
+  </si>
+  <si>
+    <t>CORÉIA DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1473,14 +1482,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2116,6 +2117,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFF2F2F2"/>
         </patternFill>
@@ -2469,6 +2478,106 @@
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t> em conta o ano de análise</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>1 - Direita</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>2 - Centro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>3 - Esquerda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Neste projeto as variáveis que compõem a escala ideológica foram transformadas para uma mesma escala, variando de 1 a 5. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>1: Direita</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>2: Centro-Direita</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>3: Centro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>4: Centro-Esquerda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>5: Esquerda</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Preserva-se a classificação original (ou seja, se no DPI o partido é classificado como de Esquerda (3), na nova escala ele é mantido como de esquerda, mas agora com o valor 5).</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
@@ -2905,19 +3014,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IMP_REG1 à IMP_REG5: porcentagem </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>das importações totais correspondentes às regiões dispostas pelas variáveis IMPORT_REG1 à IMPORT_REG5</a:t>
+            <a:t>IMP_REG1 à IMP_REG5: porcentagem das importações totais correspondentes às regiões dispostas pelas variáveis IMPORT_REG1 à IMPORT_REG5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3023,91 +3120,91 @@
     <tableColumn id="4" name="ANO_INICIO2" dataDxfId="73"/>
     <tableColumn id="5" name="PARTIDO" dataDxfId="72"/>
     <tableColumn id="6" name="PARTIDO_SIGLA" dataDxfId="71"/>
-    <tableColumn id="7" name="&gt; COMÉRCIO" dataDxfId="0"/>
-    <tableColumn id="13" name="&gt; N ACORDOS" dataDxfId="70"/>
-    <tableColumn id="14" name="PROX ONU" dataDxfId="69"/>
-    <tableColumn id="15" name="CsONU" dataDxfId="68"/>
-    <tableColumn id="16" name="FMI" dataDxfId="67"/>
+    <tableColumn id="7" name="&gt; COMÉRCIO" dataDxfId="70"/>
+    <tableColumn id="13" name="&gt; N ACORDOS" dataDxfId="69"/>
+    <tableColumn id="14" name="PROX ONU" dataDxfId="68"/>
+    <tableColumn id="15" name="CsONU" dataDxfId="67"/>
+    <tableColumn id="16" name="FMI" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AT63" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:AT63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AT91" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A1:AT91"/>
   <tableColumns count="46">
-    <tableColumn id="1" name="PAIS" dataDxfId="64"/>
-    <tableColumn id="2" name="ANO_BASE" dataDxfId="63"/>
-    <tableColumn id="3" name="PRESIDENTE" dataDxfId="62"/>
-    <tableColumn id="4" name="ANO_MAND" dataDxfId="61"/>
-    <tableColumn id="5" name="PARTIDO" dataDxfId="60"/>
-    <tableColumn id="6" name="PARTIDO_SIGLA" dataDxfId="59"/>
-    <tableColumn id="7" name="IMPORT1" dataDxfId="58"/>
-    <tableColumn id="8" name="IMPORT_PART1" dataDxfId="57"/>
-    <tableColumn id="9" name="IMPORT2" dataDxfId="56"/>
-    <tableColumn id="10" name="IMPORT_PART2" dataDxfId="55"/>
-    <tableColumn id="11" name="IMPORT3" dataDxfId="54"/>
-    <tableColumn id="12" name="IMPORT_PART3" dataDxfId="53"/>
-    <tableColumn id="13" name="IMPORT4" dataDxfId="52"/>
-    <tableColumn id="14" name="IMPORT_PART4" dataDxfId="51"/>
-    <tableColumn id="15" name="IMPORT5" dataDxfId="50"/>
-    <tableColumn id="16" name="IMPORT_PART5" dataDxfId="49"/>
-    <tableColumn id="17" name="EXPORT1" dataDxfId="48"/>
-    <tableColumn id="18" name="EXPORT_PART1" dataDxfId="47"/>
-    <tableColumn id="19" name="EXPORT2" dataDxfId="46"/>
-    <tableColumn id="20" name="EXPORT_PART2" dataDxfId="45"/>
-    <tableColumn id="21" name="EXPORT3" dataDxfId="44"/>
-    <tableColumn id="22" name="EXPORT_PART3" dataDxfId="43"/>
-    <tableColumn id="23" name="EXPORT4" dataDxfId="42"/>
-    <tableColumn id="24" name="EXPORT_PART4" dataDxfId="41"/>
-    <tableColumn id="25" name="EXPORT5" dataDxfId="40"/>
-    <tableColumn id="26" name="EXPORT_PART5" dataDxfId="39"/>
-    <tableColumn id="27" name="IMP_REG1" dataDxfId="38"/>
-    <tableColumn id="28" name="IMPORT_REG1" dataDxfId="37"/>
-    <tableColumn id="29" name="IMP_REG2" dataDxfId="36"/>
-    <tableColumn id="30" name="IMPORT_REG2" dataDxfId="35"/>
-    <tableColumn id="31" name="IMP_REG3" dataDxfId="34"/>
-    <tableColumn id="32" name="IMPORT_REG3" dataDxfId="33"/>
-    <tableColumn id="33" name="IMP_REG4" dataDxfId="32"/>
-    <tableColumn id="34" name="IMPORT_REG4" dataDxfId="31"/>
-    <tableColumn id="35" name="IMP_REG5" dataDxfId="30"/>
-    <tableColumn id="36" name="IMPORT_REG5" dataDxfId="29"/>
-    <tableColumn id="37" name="EXP_REG1" dataDxfId="28"/>
-    <tableColumn id="38" name="EXPORT_REG1" dataDxfId="27"/>
-    <tableColumn id="39" name="EXP_REG2" dataDxfId="26"/>
-    <tableColumn id="40" name="EXPORT_REG2" dataDxfId="25"/>
-    <tableColumn id="44" name="EXP_REG3" dataDxfId="24"/>
-    <tableColumn id="41" name="EXPORT_REG3" dataDxfId="23"/>
-    <tableColumn id="45" name="EXP_REG4" dataDxfId="22"/>
-    <tableColumn id="42" name="EXPORT_REG4" dataDxfId="21"/>
-    <tableColumn id="46" name="EXP_REG5" dataDxfId="20"/>
-    <tableColumn id="43" name="EXPORT_REG5" dataDxfId="19"/>
+    <tableColumn id="1" name="PAIS" dataDxfId="63"/>
+    <tableColumn id="2" name="ANO_BASE" dataDxfId="62"/>
+    <tableColumn id="3" name="PRESIDENTE" dataDxfId="61"/>
+    <tableColumn id="4" name="ANO_MAND" dataDxfId="60"/>
+    <tableColumn id="5" name="PARTIDO" dataDxfId="59"/>
+    <tableColumn id="6" name="PARTIDO_SIGLA" dataDxfId="58"/>
+    <tableColumn id="7" name="IMPORT1" dataDxfId="57"/>
+    <tableColumn id="8" name="IMPORT_PART1" dataDxfId="56"/>
+    <tableColumn id="9" name="IMPORT2" dataDxfId="55"/>
+    <tableColumn id="10" name="IMPORT_PART2" dataDxfId="54"/>
+    <tableColumn id="11" name="IMPORT3" dataDxfId="53"/>
+    <tableColumn id="12" name="IMPORT_PART3" dataDxfId="52"/>
+    <tableColumn id="13" name="IMPORT4" dataDxfId="51"/>
+    <tableColumn id="14" name="IMPORT_PART4" dataDxfId="50"/>
+    <tableColumn id="15" name="IMPORT5" dataDxfId="49"/>
+    <tableColumn id="16" name="IMPORT_PART5" dataDxfId="48"/>
+    <tableColumn id="17" name="EXPORT1" dataDxfId="47"/>
+    <tableColumn id="18" name="EXPORT_PART1" dataDxfId="46"/>
+    <tableColumn id="19" name="EXPORT2" dataDxfId="45"/>
+    <tableColumn id="20" name="EXPORT_PART2" dataDxfId="44"/>
+    <tableColumn id="21" name="EXPORT3" dataDxfId="43"/>
+    <tableColumn id="22" name="EXPORT_PART3" dataDxfId="42"/>
+    <tableColumn id="23" name="EXPORT4" dataDxfId="41"/>
+    <tableColumn id="24" name="EXPORT_PART4" dataDxfId="40"/>
+    <tableColumn id="25" name="EXPORT5" dataDxfId="39"/>
+    <tableColumn id="26" name="EXPORT_PART5" dataDxfId="38"/>
+    <tableColumn id="27" name="IMP_REG1" dataDxfId="37"/>
+    <tableColumn id="28" name="IMPORT_REG1" dataDxfId="36"/>
+    <tableColumn id="29" name="IMP_REG2" dataDxfId="35"/>
+    <tableColumn id="30" name="IMPORT_REG2" dataDxfId="34"/>
+    <tableColumn id="31" name="IMP_REG3" dataDxfId="33"/>
+    <tableColumn id="32" name="IMPORT_REG3" dataDxfId="32"/>
+    <tableColumn id="33" name="IMP_REG4" dataDxfId="31"/>
+    <tableColumn id="34" name="IMPORT_REG4" dataDxfId="30"/>
+    <tableColumn id="35" name="IMP_REG5" dataDxfId="29"/>
+    <tableColumn id="36" name="IMPORT_REG5" dataDxfId="28"/>
+    <tableColumn id="37" name="EXP_REG1" dataDxfId="27"/>
+    <tableColumn id="38" name="EXPORT_REG1" dataDxfId="26"/>
+    <tableColumn id="39" name="EXP_REG2" dataDxfId="25"/>
+    <tableColumn id="40" name="EXPORT_REG2" dataDxfId="24"/>
+    <tableColumn id="44" name="EXP_REG3" dataDxfId="23"/>
+    <tableColumn id="41" name="EXPORT_REG3" dataDxfId="22"/>
+    <tableColumn id="45" name="EXP_REG4" dataDxfId="21"/>
+    <tableColumn id="42" name="EXPORT_REG4" dataDxfId="20"/>
+    <tableColumn id="46" name="EXP_REG5" dataDxfId="19"/>
+    <tableColumn id="43" name="EXPORT_REG5" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:P135" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:P135" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:P135"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="PAIS" dataDxfId="16"/>
-    <tableColumn id="2" name="ANO_INICIO" dataDxfId="15"/>
-    <tableColumn id="3" name="PRESIDENTE" dataDxfId="14"/>
-    <tableColumn id="4" name="ANO_INICIO2" dataDxfId="13"/>
-    <tableColumn id="5" name="PARTIDO" dataDxfId="12"/>
-    <tableColumn id="6" name="PARTIDO_SIGLA" dataDxfId="11"/>
-    <tableColumn id="10" name="ID_FINAL" dataDxfId="10"/>
-    <tableColumn id="11" name="MELHOR BALANÇA COMERCIAL" dataDxfId="9"/>
-    <tableColumn id="17" name="ID_OUTRO" dataDxfId="8"/>
-    <tableColumn id="13" name="&gt; N ACORDOS" dataDxfId="7"/>
-    <tableColumn id="18" name="ID_OUTRO2" dataDxfId="6"/>
-    <tableColumn id="14" name="PROX ONU" dataDxfId="5"/>
-    <tableColumn id="19" name="ID_OUTRO3" dataDxfId="4"/>
-    <tableColumn id="20" name="ÍNDICE DE PROXIMIDADE" dataDxfId="3"/>
-    <tableColumn id="15" name="CsONU" dataDxfId="2"/>
-    <tableColumn id="16" name="FMI" dataDxfId="1"/>
+    <tableColumn id="1" name="PAIS" dataDxfId="15"/>
+    <tableColumn id="2" name="ANO_INICIO" dataDxfId="14"/>
+    <tableColumn id="3" name="PRESIDENTE" dataDxfId="13"/>
+    <tableColumn id="4" name="ANO_INICIO2" dataDxfId="12"/>
+    <tableColumn id="5" name="PARTIDO" dataDxfId="11"/>
+    <tableColumn id="6" name="PARTIDO_SIGLA" dataDxfId="10"/>
+    <tableColumn id="10" name="ID_FINAL" dataDxfId="9"/>
+    <tableColumn id="11" name="MELHOR BALANÇA COMERCIAL" dataDxfId="8"/>
+    <tableColumn id="17" name="ID_OUTRO" dataDxfId="7"/>
+    <tableColumn id="13" name="&gt; N ACORDOS" dataDxfId="6"/>
+    <tableColumn id="18" name="ID_OUTRO2" dataDxfId="5"/>
+    <tableColumn id="14" name="PROX ONU" dataDxfId="4"/>
+    <tableColumn id="19" name="ID_OUTRO3" dataDxfId="3"/>
+    <tableColumn id="20" name="ÍNDICE DE PROXIMIDADE" dataDxfId="2"/>
+    <tableColumn id="15" name="CsONU" dataDxfId="1"/>
+    <tableColumn id="16" name="FMI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3378,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F19"/>
+    <sheetView showGridLines="0" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10932,10 +11029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT63"/>
+  <dimension ref="A1:AT91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10944,7 +11041,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
@@ -10971,9 +11068,9 @@
     <col min="29" max="29" width="12.28515625" customWidth="1"/>
     <col min="30" max="30" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.28515625" customWidth="1"/>
-    <col min="32" max="32" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.28515625" customWidth="1"/>
-    <col min="34" max="34" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.28515625" customWidth="1"/>
     <col min="36" max="36" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
@@ -18190,6 +18287,3512 @@
       <c r="AS63" s="8"/>
       <c r="AT63" s="8"/>
     </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>1985</v>
+      </c>
+      <c r="C64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64">
+        <v>1990</v>
+      </c>
+      <c r="E64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="8">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I64" s="8">
+        <v>8.15</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K64" s="8">
+        <v>7.35</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="M64" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O64" s="8">
+        <v>6.74</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>24.62</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S64" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="U64" s="8">
+        <v>7.48</v>
+      </c>
+      <c r="V64" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="W64" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="X64" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="Z64" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA64" s="8">
+        <v>24.45</v>
+      </c>
+      <c r="AB64" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC64" s="8">
+        <v>22.23</v>
+      </c>
+      <c r="AD64" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE64" s="8">
+        <v>21</v>
+      </c>
+      <c r="AF64" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG64" s="8">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AH64" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI64" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="AJ64" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK64" s="8">
+        <v>31.93</v>
+      </c>
+      <c r="AL64" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM64" s="8">
+        <v>26.28</v>
+      </c>
+      <c r="AN64" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO64" s="8">
+        <v>15.34</v>
+      </c>
+      <c r="AP64" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ64" s="8">
+        <v>11.67</v>
+      </c>
+      <c r="AR64" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS64" s="8">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AT64" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>1985</v>
+      </c>
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65">
+        <v>1991</v>
+      </c>
+      <c r="E65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="8">
+        <v>23.48</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I65" s="8">
+        <v>8.83</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K65" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="8">
+        <v>6.39</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="O65" s="8">
+        <v>5.87</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S65" s="8">
+        <v>8.09</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="U65" s="8">
+        <v>6.82</v>
+      </c>
+      <c r="V65" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="W65" s="8">
+        <v>6.79</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>4.67</v>
+      </c>
+      <c r="Z65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA65" s="8">
+        <v>26.39</v>
+      </c>
+      <c r="AB65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC65" s="8">
+        <v>26.08</v>
+      </c>
+      <c r="AD65" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE65" s="8">
+        <v>18.34</v>
+      </c>
+      <c r="AF65" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG65" s="8">
+        <v>14.27</v>
+      </c>
+      <c r="AH65" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI65" s="8">
+        <v>9.24</v>
+      </c>
+      <c r="AJ65" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK65" s="8">
+        <v>30.65</v>
+      </c>
+      <c r="AL65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM65" s="8">
+        <v>21.67</v>
+      </c>
+      <c r="AN65" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO65" s="8">
+        <v>16.73</v>
+      </c>
+      <c r="AP65" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ65" s="8">
+        <v>15.97</v>
+      </c>
+      <c r="AR65" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS65" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="AT65" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>1985</v>
+      </c>
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66">
+        <v>1992</v>
+      </c>
+      <c r="G66" s="8">
+        <v>24.07</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" s="8">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K66" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="O66" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>19.68</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S66" s="8">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W66" s="8">
+        <v>6.42</v>
+      </c>
+      <c r="X66" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y66" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="Z66" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA66" s="8">
+        <v>26.79</v>
+      </c>
+      <c r="AB66" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC66" s="8">
+        <v>26.57</v>
+      </c>
+      <c r="AD66" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE66" s="8">
+        <v>18.16</v>
+      </c>
+      <c r="AF66" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG66" s="8">
+        <v>15.98</v>
+      </c>
+      <c r="AH66" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI66" s="8">
+        <v>8.82</v>
+      </c>
+      <c r="AJ66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK66" s="8">
+        <v>29.27</v>
+      </c>
+      <c r="AL66" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM66" s="8">
+        <v>22.35</v>
+      </c>
+      <c r="AN66" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO66" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="AP66" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ66" s="8">
+        <v>13.87</v>
+      </c>
+      <c r="AR66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS66" s="8">
+        <v>4.51</v>
+      </c>
+      <c r="AT66" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>1985</v>
+      </c>
+      <c r="C67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67">
+        <v>1993</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8">
+        <v>22.97</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" s="8">
+        <v>10.32</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="8">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M67" s="8">
+        <v>6.11</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="O67" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>20.75</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S67" s="8">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U67" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W67" s="8">
+        <v>5.98</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="Z67" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA67" s="8">
+        <v>26.89</v>
+      </c>
+      <c r="AB67" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC67" s="8">
+        <v>26.08</v>
+      </c>
+      <c r="AD67" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE67" s="8">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AF67" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG67" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="AH67" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI67" s="8">
+        <v>11.64</v>
+      </c>
+      <c r="AJ67" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK67" s="8">
+        <v>26.03</v>
+      </c>
+      <c r="AL67" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM67" s="8">
+        <v>25.07</v>
+      </c>
+      <c r="AN67" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO67" s="8">
+        <v>21.94</v>
+      </c>
+      <c r="AP67" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ67" s="8">
+        <v>14.15</v>
+      </c>
+      <c r="AR67" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS67" s="8">
+        <v>4.34</v>
+      </c>
+      <c r="AT67" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1985</v>
+      </c>
+      <c r="C68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68">
+        <v>1994</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I68" s="8">
+        <v>10.78</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="8">
+        <v>10.18</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M68" s="8">
+        <v>5.82</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O68" s="8">
+        <v>5.46</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>20.59</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S68" s="8">
+        <v>9.49</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U68" s="8">
+        <v>7.06</v>
+      </c>
+      <c r="V68" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W68" s="8">
+        <v>5.94</v>
+      </c>
+      <c r="X68" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y68" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="Z68" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA68" s="8">
+        <v>29.97</v>
+      </c>
+      <c r="AB68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC68" s="8">
+        <v>25.98</v>
+      </c>
+      <c r="AD68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE68" s="8">
+        <v>20.25</v>
+      </c>
+      <c r="AF68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG68" s="8">
+        <v>11.41</v>
+      </c>
+      <c r="AH68" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI68" s="8">
+        <v>7.48</v>
+      </c>
+      <c r="AJ68" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK68" s="8">
+        <v>27.53</v>
+      </c>
+      <c r="AL68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM68" s="8">
+        <v>24.14</v>
+      </c>
+      <c r="AN68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO68" s="8">
+        <v>21.74</v>
+      </c>
+      <c r="AP68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ68" s="8">
+        <v>13.98</v>
+      </c>
+      <c r="AR68" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS68" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="AT68" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>1985</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>1995</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="8">
+        <v>23.73</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="8">
+        <v>10.09</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M69" s="8">
+        <v>5.88</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O69" s="8">
+        <v>5.07</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S69" s="8">
+        <v>8.69</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U69" s="8">
+        <v>6.67</v>
+      </c>
+      <c r="V69" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="W69" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Z69" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="AB69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC69" s="8">
+        <v>26.15</v>
+      </c>
+      <c r="AD69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE69" s="8">
+        <v>20.87</v>
+      </c>
+      <c r="AF69" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG69" s="8">
+        <v>12.64</v>
+      </c>
+      <c r="AH69" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI69" s="8">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AJ69" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK69" s="8">
+        <v>28.16</v>
+      </c>
+      <c r="AL69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM69" s="8">
+        <v>22.84</v>
+      </c>
+      <c r="AN69" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO69" s="8">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AP69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ69" s="8">
+        <v>16.22</v>
+      </c>
+      <c r="AR69" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS69" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="AT69" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>1985</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>1996</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="8">
+        <v>22.27</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I70" s="8">
+        <v>12.52</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="8">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M70" s="8">
+        <v>5.41</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O70" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S70" s="8">
+        <v>10.83</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U70" s="8">
+        <v>7.43</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W70" s="8">
+        <v>6.38</v>
+      </c>
+      <c r="X70" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Z70" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA70" s="8">
+        <v>28.91</v>
+      </c>
+      <c r="AB70" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC70" s="8">
+        <v>24.73</v>
+      </c>
+      <c r="AD70" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE70" s="8">
+        <v>21.76</v>
+      </c>
+      <c r="AF70" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG70" s="8">
+        <v>13.29</v>
+      </c>
+      <c r="AH70" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI70" s="8">
+        <v>5.12</v>
+      </c>
+      <c r="AJ70" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK70" s="8">
+        <v>28.11</v>
+      </c>
+      <c r="AL70" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM70" s="8">
+        <v>24.21</v>
+      </c>
+      <c r="AN70" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO70" s="8">
+        <v>20.57</v>
+      </c>
+      <c r="AP70" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ70" s="8">
+        <v>15.37</v>
+      </c>
+      <c r="AR70" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS70" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="AT70" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>1985</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>1997</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="8">
+        <v>23.43</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I71" s="8">
+        <v>13.18</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="8">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M71" s="8">
+        <v>5.85</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O71" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S71" s="8">
+        <v>12.77</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U71" s="8">
+        <v>7.55</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W71" s="8">
+        <v>5.79</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="Z71" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA71" s="8">
+        <v>28.31</v>
+      </c>
+      <c r="AB71" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC71" s="8">
+        <v>25.87</v>
+      </c>
+      <c r="AD71" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE71" s="8">
+        <v>21.89</v>
+      </c>
+      <c r="AF71" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG71" s="8">
+        <v>13.92</v>
+      </c>
+      <c r="AH71" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI71" s="8">
+        <v>4.67</v>
+      </c>
+      <c r="AJ71" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK71" s="8">
+        <v>28.45</v>
+      </c>
+      <c r="AL71" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM71" s="8">
+        <v>27.49</v>
+      </c>
+      <c r="AN71" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO71" s="8">
+        <v>18.86</v>
+      </c>
+      <c r="AP71" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ71" s="8">
+        <v>13.67</v>
+      </c>
+      <c r="AR71" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS71" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="AT71" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>1985</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>1998</v>
+      </c>
+      <c r="E72" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="8">
+        <v>23.55</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I72" s="8">
+        <v>13.85</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M72" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O72" s="8">
+        <v>5.47</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>19.34</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S72" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U72" s="8">
+        <v>5.88</v>
+      </c>
+      <c r="V72" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="W72" s="8">
+        <v>5.37</v>
+      </c>
+      <c r="X72" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Z72" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA72" s="8">
+        <v>30.99</v>
+      </c>
+      <c r="AB72" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC72" s="8">
+        <v>25.96</v>
+      </c>
+      <c r="AD72" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE72" s="8">
+        <v>21.63</v>
+      </c>
+      <c r="AF72" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG72" s="8">
+        <v>12.85</v>
+      </c>
+      <c r="AH72" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI72" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="AJ72" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK72" s="8">
+        <v>28.33</v>
+      </c>
+      <c r="AL72" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM72" s="8">
+        <v>27.73</v>
+      </c>
+      <c r="AN72" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO72" s="8">
+        <v>20.41</v>
+      </c>
+      <c r="AP72" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ72" s="8">
+        <v>9.98</v>
+      </c>
+      <c r="AR72" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS72" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="AT72" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>1985</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>1999</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I73" s="8">
+        <v>11.81</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M73" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O73" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>22.64</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S73" s="8">
+        <v>11.17</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U73" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W73" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="X73" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y73" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA73" s="8">
+        <v>33.46</v>
+      </c>
+      <c r="AB73" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC73" s="8">
+        <v>26.04</v>
+      </c>
+      <c r="AD73" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE73" s="8">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="AF73" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG73" s="8">
+        <v>12.46</v>
+      </c>
+      <c r="AH73" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI73" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="AJ73" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK73" s="8">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="AL73" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM73" s="8">
+        <v>23.71</v>
+      </c>
+      <c r="AN73" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO73" s="8">
+        <v>23.68</v>
+      </c>
+      <c r="AP73" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ73" s="8">
+        <v>10.87</v>
+      </c>
+      <c r="AR73" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS73" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="AT73" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>1985</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>2000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="8">
+        <v>23.34</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I74" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="8">
+        <v>7.93</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M74" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O74" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>24.29</v>
+      </c>
+      <c r="R74" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S74" s="8">
+        <v>11.32</v>
+      </c>
+      <c r="T74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U74" s="8">
+        <v>5.07</v>
+      </c>
+      <c r="V74" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W74" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="X74" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="Z74" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA74" s="8">
+        <v>29.3</v>
+      </c>
+      <c r="AB74" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC74" s="8">
+        <v>25.29</v>
+      </c>
+      <c r="AD74" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE74" s="8">
+        <v>21.33</v>
+      </c>
+      <c r="AF74" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG74" s="8">
+        <v>13.99</v>
+      </c>
+      <c r="AH74" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI74" s="8">
+        <v>5.83</v>
+      </c>
+      <c r="AJ74" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK74" s="8">
+        <v>30.78</v>
+      </c>
+      <c r="AL74" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM74" s="8">
+        <v>25.32</v>
+      </c>
+      <c r="AN74" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO74" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="AP74" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ74" s="8">
+        <v>10.93</v>
+      </c>
+      <c r="AR74" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS74" s="8">
+        <v>3.35</v>
+      </c>
+      <c r="AT74" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>1985</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>2001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="8">
+        <v>23.47</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I75" s="8">
+        <v>11.16</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="8">
+        <v>8.68</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M75" s="8">
+        <v>5.51</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O75" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S75" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="T75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U75" s="8">
+        <v>4.91</v>
+      </c>
+      <c r="V75" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W75" s="8">
+        <v>4.91</v>
+      </c>
+      <c r="X75" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y75" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="Z75" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA75" s="8">
+        <v>31.17</v>
+      </c>
+      <c r="AB75" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC75" s="8">
+        <v>25.14</v>
+      </c>
+      <c r="AD75" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE75" s="8">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AF75" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG75" s="8">
+        <v>14.24</v>
+      </c>
+      <c r="AH75" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI75" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ75" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK75" s="8">
+        <v>30.06</v>
+      </c>
+      <c r="AL75" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM75" s="8">
+        <v>25.66</v>
+      </c>
+      <c r="AN75" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO75" s="8">
+        <v>22.81</v>
+      </c>
+      <c r="AP75" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ75" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="AR75" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS75" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="AT75" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1985</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>2002</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I76" s="8">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="8">
+        <v>9.35</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M76" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O76" s="8">
+        <v>3.76</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>25.74</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S76" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="T76" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="U76" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="W76" s="8">
+        <v>4.17</v>
+      </c>
+      <c r="X76" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y76" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="Z76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA76" s="8">
+        <v>32.28</v>
+      </c>
+      <c r="AB76" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC76" s="8">
+        <v>23.67</v>
+      </c>
+      <c r="AD76" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE76" s="8">
+        <v>17.82</v>
+      </c>
+      <c r="AF76" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG76" s="8">
+        <v>14.74</v>
+      </c>
+      <c r="AH76" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI76" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="AJ76" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK76" s="8">
+        <v>29.56</v>
+      </c>
+      <c r="AL76" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM76" s="8">
+        <v>27.04</v>
+      </c>
+      <c r="AN76" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO76" s="8">
+        <v>18.98</v>
+      </c>
+      <c r="AP76" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ76" s="8">
+        <v>13.09</v>
+      </c>
+      <c r="AR76" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS76" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="AT76" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>1985</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>2003</v>
+      </c>
+      <c r="E77" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="8">
+        <v>20.14</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I77" s="8">
+        <v>9.67</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M77" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O77" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P77" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>23.14</v>
+      </c>
+      <c r="R77" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S77" s="8">
+        <v>6.24</v>
+      </c>
+      <c r="T77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U77" s="8">
+        <v>6.19</v>
+      </c>
+      <c r="V77" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W77" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="X77" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y77" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="Z77" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA77" s="8">
+        <v>31.33</v>
+      </c>
+      <c r="AB77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC77" s="8">
+        <v>21.69</v>
+      </c>
+      <c r="AD77" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE77" s="8">
+        <v>17.57</v>
+      </c>
+      <c r="AF77" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG77" s="8">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="AH77" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI77" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="AJ77" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK77" s="8">
+        <v>29.46</v>
+      </c>
+      <c r="AL77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM77" s="8">
+        <v>24.48</v>
+      </c>
+      <c r="AN77" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO77" s="8">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="AP77" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ77" s="8">
+        <v>14.54</v>
+      </c>
+      <c r="AR77" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS77" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="AT77" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>1985</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>2004</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="8">
+        <v>18.36</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I78" s="8">
+        <v>8.86</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="8">
+        <v>8.07</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M78" s="8">
+        <v>5.91</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O78" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="P78" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S78" s="8">
+        <v>7.64</v>
+      </c>
+      <c r="T78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U78" s="8">
+        <v>6.12</v>
+      </c>
+      <c r="V78" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="W78" s="8">
+        <v>5.63</v>
+      </c>
+      <c r="X78" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y78" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="Z78" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA78" s="8">
+        <v>29.82</v>
+      </c>
+      <c r="AB78" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC78" s="8">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="AD78" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE78" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="AF78" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG78" s="8">
+        <v>16.68</v>
+      </c>
+      <c r="AH78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI78" s="8">
+        <v>7.45</v>
+      </c>
+      <c r="AJ78" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK78" s="8">
+        <v>28.9</v>
+      </c>
+      <c r="AL78" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM78" s="8">
+        <v>23.45</v>
+      </c>
+      <c r="AN78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO78" s="8">
+        <v>22.35</v>
+      </c>
+      <c r="AP78" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ78" s="8">
+        <v>13.65</v>
+      </c>
+      <c r="AR78" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS78" s="8">
+        <v>5.48</v>
+      </c>
+      <c r="AT78" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>1985</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>2005</v>
+      </c>
+      <c r="E79" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="8">
+        <v>17.47</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I79" s="8">
+        <v>8.48</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="8">
+        <v>8.35</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M79" s="8">
+        <v>7.28</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O79" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="P79" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S79" s="8">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="T79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U79" s="8">
+        <v>5.77</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W79" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="X79" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y79" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="Z79" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA79" s="8">
+        <v>28.45</v>
+      </c>
+      <c r="AB79" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC79" s="8">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="AD79" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE79" s="8">
+        <v>18.86</v>
+      </c>
+      <c r="AF79" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG79" s="8">
+        <v>16.38</v>
+      </c>
+      <c r="AH79" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI79" s="8">
+        <v>7.87</v>
+      </c>
+      <c r="AJ79" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK79" s="8">
+        <v>27.09</v>
+      </c>
+      <c r="AL79" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM79" s="8">
+        <v>25.42</v>
+      </c>
+      <c r="AN79" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO79" s="8">
+        <v>20.89</v>
+      </c>
+      <c r="AP79" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ79" s="8">
+        <v>14.05</v>
+      </c>
+      <c r="AR79" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS79" s="8">
+        <v>5.32</v>
+      </c>
+      <c r="AT79" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>1985</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <v>2006</v>
+      </c>
+      <c r="E80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="8">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I80" s="8">
+        <v>8.82</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="M80" s="8">
+        <v>7.12</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O80" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>17.98</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S80" s="8">
+        <v>8.52</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U80" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W80" s="8">
+        <v>4.17</v>
+      </c>
+      <c r="X80" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y80" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="Z80" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA80" s="8">
+        <v>25.67</v>
+      </c>
+      <c r="AB80" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC80" s="8">
+        <v>22.31</v>
+      </c>
+      <c r="AD80" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE80" s="8">
+        <v>18.46</v>
+      </c>
+      <c r="AF80" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG80" s="8">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AH80" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI80" s="8">
+        <v>6.44</v>
+      </c>
+      <c r="AJ80" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK80" s="8">
+        <v>26.97</v>
+      </c>
+      <c r="AL80" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM80" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="AN80" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO80" s="8">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="AP80" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ80" s="8">
+        <v>13.91</v>
+      </c>
+      <c r="AR80" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS80" s="8">
+        <v>6.04</v>
+      </c>
+      <c r="AT80" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>1985</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>2007</v>
+      </c>
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="8">
+        <v>15.66</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I81" s="8">
+        <v>10.46</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K81" s="8">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M81" s="8">
+        <v>7.19</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O81" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>15.77</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S81" s="8">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U81" s="8">
+        <v>6.69</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W81" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y81" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="Z81" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA81" s="8">
+        <v>26.89</v>
+      </c>
+      <c r="AB81" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC81" s="8">
+        <v>22.37</v>
+      </c>
+      <c r="AD81" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE81" s="8">
+        <v>17.77</v>
+      </c>
+      <c r="AF81" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG81" s="8">
+        <v>17.09</v>
+      </c>
+      <c r="AH81" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI81" s="8">
+        <v>6.14</v>
+      </c>
+      <c r="AJ81" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK81" s="8">
+        <v>29.58</v>
+      </c>
+      <c r="AL81" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM81" s="8">
+        <v>25.47</v>
+      </c>
+      <c r="AN81" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO81" s="8">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="AP81" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ81" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="AR81" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS81" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="AT81" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>1985</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>2008</v>
+      </c>
+      <c r="E82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="8">
+        <v>14.94</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I82" s="8">
+        <v>11.59</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K82" s="8">
+        <v>7.66</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O82" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="P82" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>14.01</v>
+      </c>
+      <c r="R82" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="S82" s="8">
+        <v>8.89</v>
+      </c>
+      <c r="T82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U82" s="8">
+        <v>8.35</v>
+      </c>
+      <c r="V82" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W82" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="X82" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y82" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="Z82" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA82" s="8">
+        <v>25.89</v>
+      </c>
+      <c r="AB82" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC82" s="8">
+        <v>23.79</v>
+      </c>
+      <c r="AD82" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE82" s="8">
+        <v>16.86</v>
+      </c>
+      <c r="AF82" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG82" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="AH82" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI82" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="AJ82" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK82" s="8">
+        <v>27.99</v>
+      </c>
+      <c r="AL82" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM82" s="8">
+        <v>25.45</v>
+      </c>
+      <c r="AN82" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO82" s="8">
+        <v>18.07</v>
+      </c>
+      <c r="AP82" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ82" s="8">
+        <v>14.96</v>
+      </c>
+      <c r="AR82" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS82" s="8">
+        <v>5.67</v>
+      </c>
+      <c r="AT82" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>1985</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>2009</v>
+      </c>
+      <c r="E83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="8">
+        <v>15.83</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I83" s="8">
+        <v>12.46</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K83" s="8">
+        <v>8.83</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83" s="8">
+        <v>7.73</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O83" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>13.73</v>
+      </c>
+      <c r="R83" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="S83" s="8">
+        <v>10.29</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U83" s="8">
+        <v>8.36</v>
+      </c>
+      <c r="V83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W83" s="8">
+        <v>5.33</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y83" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="Z83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA83" s="8">
+        <v>26.86</v>
+      </c>
+      <c r="AB83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC83" s="8">
+        <v>25.28</v>
+      </c>
+      <c r="AD83" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE83" s="8">
+        <v>17.91</v>
+      </c>
+      <c r="AF83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG83" s="8">
+        <v>17.11</v>
+      </c>
+      <c r="AH83" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI83" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="AJ83" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK83" s="8">
+        <v>26.26</v>
+      </c>
+      <c r="AL83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM83" s="8">
+        <v>23.21</v>
+      </c>
+      <c r="AN83" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO83" s="8">
+        <v>22.53</v>
+      </c>
+      <c r="AP83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ83" s="8">
+        <v>11.52</v>
+      </c>
+      <c r="AR83" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS83" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="AT83" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1985</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84">
+        <v>2010</v>
+      </c>
+      <c r="E84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="8">
+        <v>15.01</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I84" s="8">
+        <v>14.08</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K84" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="8">
+        <v>6.91</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O84" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="P84" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>15.25</v>
+      </c>
+      <c r="R84" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="S84" s="8">
+        <v>9.64</v>
+      </c>
+      <c r="T84" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U84" s="8">
+        <v>9.17</v>
+      </c>
+      <c r="V84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W84" s="8">
+        <v>5.07</v>
+      </c>
+      <c r="X84" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y84" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="Z84" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA84" s="8">
+        <v>27.52</v>
+      </c>
+      <c r="AB84" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC84" s="8">
+        <v>25.53</v>
+      </c>
+      <c r="AD84" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE84" s="8">
+        <v>17.39</v>
+      </c>
+      <c r="AF84" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG84" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="AH84" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI84" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AJ84" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK84" s="8">
+        <v>25.63</v>
+      </c>
+      <c r="AL84" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM84" s="8">
+        <v>25.11</v>
+      </c>
+      <c r="AN84" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO84" s="8">
+        <v>23.26</v>
+      </c>
+      <c r="AP84" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ84" s="8">
+        <v>10.79</v>
+      </c>
+      <c r="AR84" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS84" s="8">
+        <v>7.33</v>
+      </c>
+      <c r="AT84" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>1985</v>
+      </c>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85">
+        <v>2011</v>
+      </c>
+      <c r="E85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="8">
+        <v>15.13</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I85" s="8">
+        <v>14.49</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K85" s="8">
+        <v>7.47</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="8">
+        <v>6.72</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O85" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="R85" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="S85" s="8">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="T85" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U85" s="8">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W85" s="8">
+        <v>5.33</v>
+      </c>
+      <c r="X85" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y85" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="Z85" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA85" s="8">
+        <v>27.51</v>
+      </c>
+      <c r="AB85" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC85" s="8">
+        <v>24.84</v>
+      </c>
+      <c r="AD85" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE85" s="8">
+        <v>16.78</v>
+      </c>
+      <c r="AF85" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG85" s="8">
+        <v>16.71</v>
+      </c>
+      <c r="AH85" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI85" s="8">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AJ85" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK85" s="8">
+        <v>27.73</v>
+      </c>
+      <c r="AL85" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM85" s="8">
+        <v>24.52</v>
+      </c>
+      <c r="AN85" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO85" s="8">
+        <v>21.91</v>
+      </c>
+      <c r="AP85" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ85" s="8">
+        <v>11.36</v>
+      </c>
+      <c r="AR85" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS85" s="8">
+        <v>6.91</v>
+      </c>
+      <c r="AT85" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>1985</v>
+      </c>
+      <c r="C86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86">
+        <v>2012</v>
+      </c>
+      <c r="E86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="8">
+        <v>15.35</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I86" s="8">
+        <v>14.61</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K86" s="8">
+        <v>7.37</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O86" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="P86" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>17</v>
+      </c>
+      <c r="R86" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="S86" s="8">
+        <v>11.07</v>
+      </c>
+      <c r="T86" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U86" s="8">
+        <v>7.42</v>
+      </c>
+      <c r="V86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W86" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="X86" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>3.28</v>
+      </c>
+      <c r="Z86" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA86" s="8">
+        <v>27.64</v>
+      </c>
+      <c r="AB86" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC86" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="AD86" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE86" s="8">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AF86" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG86" s="8">
+        <v>15.99</v>
+      </c>
+      <c r="AH86" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI86" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="AJ86" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK86" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="AL86" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM86" s="8">
+        <v>23.74</v>
+      </c>
+      <c r="AN86" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO86" s="8">
+        <v>20.27</v>
+      </c>
+      <c r="AP86" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ86" s="8">
+        <v>12.34</v>
+      </c>
+      <c r="AR86" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS86" s="8">
+        <v>7.05</v>
+      </c>
+      <c r="AT86" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>1985</v>
+      </c>
+      <c r="C87" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87">
+        <v>2013</v>
+      </c>
+      <c r="E87" t="s">
+        <v>198</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+      <c r="AO87" s="8"/>
+      <c r="AP87" s="8"/>
+      <c r="AQ87" s="8"/>
+      <c r="AR87" s="8"/>
+      <c r="AS87" s="8"/>
+      <c r="AT87" s="8"/>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>1985</v>
+      </c>
+      <c r="C88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88">
+        <v>2014</v>
+      </c>
+      <c r="E88" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="8"/>
+      <c r="AP88" s="8"/>
+      <c r="AQ88" s="8"/>
+      <c r="AR88" s="8"/>
+      <c r="AS88" s="8"/>
+      <c r="AT88" s="8"/>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>1985</v>
+      </c>
+      <c r="C89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89">
+        <v>2015</v>
+      </c>
+      <c r="E89" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="8"/>
+      <c r="AQ89" s="8"/>
+      <c r="AR89" s="8"/>
+      <c r="AS89" s="8"/>
+      <c r="AT89" s="8"/>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>1985</v>
+      </c>
+      <c r="C90" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90">
+        <v>2016</v>
+      </c>
+      <c r="E90" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="8"/>
+      <c r="AO90" s="8"/>
+      <c r="AP90" s="8"/>
+      <c r="AQ90" s="8"/>
+      <c r="AR90" s="8"/>
+      <c r="AS90" s="8"/>
+      <c r="AT90" s="8"/>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>1985</v>
+      </c>
+      <c r="C91" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E91" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="8"/>
+      <c r="AM91" s="8"/>
+      <c r="AN91" s="8"/>
+      <c r="AO91" s="8"/>
+      <c r="AP91" s="8"/>
+      <c r="AQ91" s="8"/>
+      <c r="AR91" s="8"/>
+      <c r="AS91" s="8"/>
+      <c r="AT91" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -21383,8 +24986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
